--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+  <si>
+    <t>jkljljh ghjghj</t>
+  </si>
   <si>
     <t>pokoikml</t>
   </si>
@@ -24,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -39,14 +42,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,14 +71,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,19 +107,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,13 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -121,47 +146,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,7 +163,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +194,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -203,19 +290,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,13 +326,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,133 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,8 +391,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -397,8 +400,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,6 +432,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,15 +477,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -487,148 +490,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,17 +953,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="I16"/>
+  <dimension ref="F10:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
+    <row r="10" spans="6:6">
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="9:9">
       <c r="I16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
